--- a/2022茨城大ゲーミング/全資料/E7_名簿（3組受け手用）.xlsx
+++ b/2022茨城大ゲーミング/全資料/E7_名簿（3組受け手用）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavieで同期\日韓ゲーミング\git日韓ゲーミング\2022茨城大ゲーミング\全資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AC64E3-5421-4EA4-B7FE-A3B504E192B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9349DC-0F20-49A4-B168-EE3A7B623298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,18 +48,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>い</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>受け手</t>
     <rPh sb="0" eb="1">
       <t>ウ</t>
@@ -85,19 +73,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>え</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>グループリーダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -159,6 +135,25 @@
   </si>
   <si>
     <t>C301・302</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山口大貴</t>
+  </si>
+  <si>
+    <t>安夢果</t>
+  </si>
+  <si>
+    <t>綿引 彩華</t>
+  </si>
+  <si>
+    <t>阿部春花</t>
+  </si>
+  <si>
+    <t>林田優</t>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -190,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -250,14 +245,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,11 +575,12 @@
   <dimension ref="B1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -563,12 +589,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="H1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="1" t="s">
@@ -581,22 +607,22 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2">
         <v>44585</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2">
         <v>44599</v>
@@ -604,148 +630,148 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="18.5" thickBot="1">
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="18.5" thickTop="1">
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>20</v>
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
